--- a/Microbiologie/data/Parasitologie.xlsx
+++ b/Microbiologie/data/Parasitologie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Microbiologie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32C554-0054-45B7-9A00-B2ADB615D149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874CAFE-06E6-475E-A595-A2FF69B1EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{62235210-E2B5-47A9-AC18-0D365B32D810}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62235210-E2B5-47A9-AC18-0D365B32D810}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Espèce</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Recherche de trophozoite/forme flagellée dans le LCR</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -530,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6483C4B5-9939-4327-94BE-077401734F28}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
@@ -650,7 +653,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>33</v>

--- a/Microbiologie/data/Parasitologie.xlsx
+++ b/Microbiologie/data/Parasitologie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Microbiologie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874CAFE-06E6-475E-A595-A2FF69B1EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E7D48-FD12-44F9-86CA-A7D0ED55C788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62235210-E2B5-47A9-AC18-0D365B32D810}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Espèce</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6483C4B5-9939-4327-94BE-077401734F28}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +677,21 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Microbiologie/data/Parasitologie.xlsx
+++ b/Microbiologie/data/Parasitologie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Microbiologie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345E7D48-FD12-44F9-86CA-A7D0ED55C788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC78FCA-0B1C-4BDF-A35F-9BFED4A94FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62235210-E2B5-47A9-AC18-0D365B32D810}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{62235210-E2B5-47A9-AC18-0D365B32D810}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
   <si>
     <t>Espèce</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Localisation</t>
-  </si>
-  <si>
-    <t>Régions tropicales</t>
   </si>
   <si>
     <t>Amibiase</t>
@@ -104,9 +101,6 @@
 Kystes immédiatement infectants libérés dans les selles, survit hors de l'hote</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>Ingestion de kyste : contamination fécale-orale.</t>
   </si>
   <si>
@@ -156,16 +150,351 @@
     <t>Recherche de trophozoite/forme flagellée dans le LCR</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
+    <t>Acanthamoeba spp</t>
+  </si>
+  <si>
+    <t>Mondiale, notamment régions tropicales</t>
+  </si>
+  <si>
+    <t>Infecte principalement les immunodéprimés.
+Létal : évolution chronique.</t>
+  </si>
+  <si>
+    <t>SNC
+Yeux</t>
+  </si>
+  <si>
+    <t>Voies respiratoires inférieures (inhalation) ou lésion cutanées.
+Portage de lentille de contact chez l'immunocompétent</t>
+  </si>
+  <si>
+    <t>Encéphalite amibienne granulomateuse (EAG) : Evolution subaigüe ou chronique, habituellement mortelle en plusieurs semaines
+Kératite oculaire : Inflammation, nécrose; varie de photophobie à cécité</t>
+  </si>
+  <si>
+    <t>Recherche de trophozoïtes dans le LCR mais plus souvent sur autopsie car on rate le diagnostic.
+Recherche de trophozoïtes sur les lentilles, sur un frottis de cornée.</t>
+  </si>
+  <si>
+    <t>Trophozoïtes atteint le SNC via la circulation sanguine
+Invasion de l'épithélium (yeux)</t>
+  </si>
+  <si>
+    <t>Giardia intestinalis</t>
+  </si>
+  <si>
+    <t>Giardiase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mondiale </t>
+  </si>
+  <si>
+    <t>Environnemental, l'homme est un hôte accidentel</t>
+  </si>
+  <si>
+    <t>Parasite extracellulaire.
+Kyste : 2 à 4 noyaux, reliquats de flagelles, corps parabasaux, 1 kyste donne 2 trophozoites
+Trophozoites : Forme de cerf-volant, 2 noyaux, 4 paires de flagelles, disque de succion (permettant sa fixation à la muqueuse)</t>
+  </si>
+  <si>
+    <t>Muqueuse de l'intestin grêle</t>
+  </si>
+  <si>
+    <t>Homme, mammifères sauvages et domestiques</t>
+  </si>
+  <si>
+    <t>Kyste ingéré libère deux trophozoites dans le duodénum ou au début du jéjunum.
+Les trophozoites adhèrent à la muqueuse intestinale sans jamais l'envahir ( ≠ amiibes).</t>
+  </si>
+  <si>
+    <t>Maladie liée à la densité des parasites !
+50 à 800% des infections sont asymptomatiques.
+Phase d'état après incubation (7j), varie entre asympto et diarrhée + douleurs épigastrique + nausée + flatulence, peut provoquer malabsorption et donc un retard de croissance</t>
+  </si>
+  <si>
+    <t>Prélèvement selle x3, tubage duodénal, biposie duodénal
+Examen morpho direct, à frais ou post-colo, Anticorps monoclonaux avec fluoresceine
+Diagnostic différentiel avec les autres flagellés qui ne sont pas ou rarement pathogènes</t>
+  </si>
+  <si>
+    <t>On traite les individus sympto ou non
+Tinidazole
+Paromomycine
+Hygiène des mains, retrait de la crèche</t>
+  </si>
+  <si>
+    <t>Trichomonas intestinalis</t>
+  </si>
+  <si>
+    <t>Autres flagellés</t>
+  </si>
+  <si>
+    <t>Rarement pathogènes, pas de kystes, que des trophozoites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colon  </t>
+  </si>
+  <si>
+    <t>Porteurs sains ou colite chronique</t>
+  </si>
+  <si>
+    <t>Dientamoeba fragilis
+Chilomastix mesnili
+Enteromonas hominis
+Embadomonas intestinalis
+Trichomonas tenax</t>
+  </si>
+  <si>
+    <t>Non pathogènes</t>
+  </si>
+  <si>
+    <t>Tube digestif</t>
+  </si>
+  <si>
+    <t>Asymptomatique ou douleurs abdominales, diarhées</t>
+  </si>
+  <si>
+    <t>Trichomonas vaginalis</t>
+  </si>
+  <si>
+    <t>Trichomonase uro-génitale</t>
+  </si>
+  <si>
+    <t>Parasite extracellulaire.
+Pas de stades kystique
+Trophozoite : 4 flagelles antérieur, 1 axostyle postérieur
+Cofacteur favorisant la transmission du VIH</t>
+  </si>
+  <si>
+    <t>Muqueuses uro-génitales</t>
+  </si>
+  <si>
+    <t>Stade trophozoïtes uniquement, ne survit pas en extracellulaire
+Adhère aux muqueuses uro-génitales et cause des lésions</t>
+  </si>
+  <si>
+    <t>Transmission sexuelle</t>
+  </si>
+  <si>
+    <t>Chez la femme : Asymptomatique (50%) Vaginite à leucorrhées purulentes. Dysurie, cystite, peut remonter le col et pourrait augmenter le risque de cancer.
+AUGMENTE LE RISQUE DE VIH
+Chez l'homme : Souvent asymptomatique (70%) Rare urétrite bénigne, épididymite, prostatite</t>
+  </si>
+  <si>
+    <t>pH vaginal alcalin (Normalement acide)
+InPouch
+Prélèvements</t>
+  </si>
+  <si>
+    <t>Tinidazole PO
+Traitement des partenaires sexuels aussi.
+Traitement local acidifiant pour les femmes plutôt que médicaments.
+Préservatifs</t>
+  </si>
+  <si>
+    <t>Cryptosporidium parvum
+Cryptosporidium hominis</t>
+  </si>
+  <si>
+    <t>Cryptosporidies (infection opportuniste majeure chez VIH)</t>
+  </si>
+  <si>
+    <t>Mammifères dont l'homme</t>
+  </si>
+  <si>
+    <t>Parasites intracellulaires
+Reproduction asexuée (schizogonie) et sexuée (gamogonie)</t>
+  </si>
+  <si>
+    <t>Cellules épithéliales de l'intestin grêle</t>
+  </si>
+  <si>
+    <t>Asexué (schizo) -&gt; sexué (gamo)
+Oocystes sphériques directement infectants libérés dans les selles</t>
+  </si>
+  <si>
+    <t>Ingestion d'oocystes : contamination fécale-orale</t>
+  </si>
+  <si>
+    <t>Chez les immunocompétents : Asymptomatique ou entérocolite banale (diarrhée aqueuse) avec évolution spontanément favorable
+Chez les immunodéprimés : Entérocolite sévère 
+INFECTION OPPORTUNISTE MAJEURE DES HIV+</t>
+  </si>
+  <si>
+    <t>Ag dans les selles (test rapide)
+Diagnostic différentiel des levures : les oocystes sont détectés par une coloration spécifique</t>
+  </si>
+  <si>
+    <t>Pas besoin de traitement chez les immunocompétent. Juste réhydration si diarrhée sévère.
+Parmomycine ou nitazoxanide</t>
+  </si>
+  <si>
+    <t>Cyclospora cayetanensis
+Isospora belli</t>
+  </si>
+  <si>
+    <t>Cyclosporose/Isosporose : Asymptomatique ou gastro banale</t>
+  </si>
+  <si>
+    <t>Recherche de parasite dans les selles</t>
+  </si>
+  <si>
+    <t>Cotrimoxazole</t>
+  </si>
+  <si>
+    <t>Autres coccidies</t>
+  </si>
+  <si>
+    <t>Toxoplasma gondii</t>
+  </si>
+  <si>
+    <t>Toxoplasmose</t>
+  </si>
+  <si>
+    <t>Mammifères et chat</t>
+  </si>
+  <si>
+    <t>Très commune : 55% de la population Belge est contaminée.
+C'est une zoonose dont l'hote définitive est le chat</t>
+  </si>
+  <si>
+    <t>Dixène</t>
+  </si>
+  <si>
+    <t>(ici c'est le chat l'hote définitif et non l'homme) Multiplication sexuée intracellulaire dans les cellules épithéliales de l'intestin grêle. Formation d'oocystes qui ne sont pas directement infectants.</t>
+  </si>
+  <si>
+    <t>(ici l'homme et les mammifères sont hôtes intermédiaire) Libération de sporozoïtes. Multiplication asexuée intracellulaire, dans les cellules épithéliales de l'intestin grêle. Production de tachyzoites -&gt; dissémination sanguine :Infection aigue.
+Lorsque la réponse immunitaire se développe, formation de bradyzoites inracellulaires dans le SNC et les muscles : Infection chronique</t>
+  </si>
+  <si>
+    <t>Transmission fécale-orale via ingestion d'oocystes
+Transmission congénitale via transfert de tachyzoites
+Transmission oral via ingestion de bradyzoites</t>
+  </si>
+  <si>
+    <t>Peu pathogène sauf si immunodéficience ou infection congénitale
+Toxoplasmose ganglionnaire bénigne (TGB): Triade symptomatique : Fievre, Adénopathie (surtout cervicale) et asthénie. Evolution spontanément favorable en quelques mois
+Toxoplasmose oculaire : Uvéite postérieure/Rétinite/Choriorétinite. Peu commun en Europe et Amérique du Nord
+Toxoplasmose grave des immunodéprimés (10-15% sympto): Causée par la réactivation de bradyzoites (kyste) préexistants chez l'immunodéprimé ou dans un greffon. Forme encéphalique, pulmonaire ou oculaire
+Toxoplasmose congénitale : Le taux de transmission in utero varie suiva la date d'acquisition de l'infection pendant la grossesse (1er trimestre = transmission faible)
+La sévérité de l'atteinte foetale varie suivant le moment de transmission (1er trimestre = plus grave)
+Si asymptomatique à la naissance, et en absence de traitement, il y a un risque de développement de séquelles oculaire (jusqu'à 20 ans) et de retard mental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxoplasmose ganglionnaire bénigne : Orientation hémato : syndrome mononucléosique. PCR ou diagnostic parasitologique inutile car réponse immunitaire réduit la parasitémie.  
+Toxoplasmose Congénitale des immunodéprimés : PCR ou diagnostic parasitologique sont utiles. Pas d'immunologie car la réponse immunitaire est insuffisante. Scanner cérébrale -&gt; Image hyperfixantes annulaires
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actif que sur les tachyzoites : Spiramycine
+Toxoplasmose Congénitale des immunodéprimés : Daraprim + Sulfadiazine
+</t>
+  </si>
+  <si>
+    <t>Plasmodium Falciparum</t>
+  </si>
+  <si>
+    <t>Paludisme (Malaria)</t>
+  </si>
+  <si>
+    <t>Mondiale sauf amérique centrale</t>
+  </si>
+  <si>
+    <t>Afrique Centrale et Ouest</t>
+  </si>
+  <si>
+    <t>Asie Sud-Est</t>
+  </si>
+  <si>
+    <t>Homme et macaques</t>
+  </si>
+  <si>
+    <t>Reproduction asexué et sexué.
+Resistance naturelle de certaines personnes : Hétérozygotes HbS et HbC</t>
+  </si>
+  <si>
+    <t>Hépatocytes chez hote définitive et glandes salivaires chez vecteur</t>
+  </si>
+  <si>
+    <t>Multiplication asexué intracellulaire exponentielle dans les hépatocytes pour former des merozoites : Cycle schizogonique hépatique. Infection des érythrocytes et continuation du cycle : Ccycle schizogonique erythrocytaire</t>
+  </si>
+  <si>
+    <t>Multiplication sexuée intracellulaire au niveau du tube digestif. Multiplication asexuée extracellulaire exponentielle dans les glandes salivaires (sporozoites)</t>
+  </si>
+  <si>
+    <t>Piqure par un moustique Anophèle femelle infectée durant la nuit.
+Aussi transmission par transfusion sanguine, transmission congénitale</t>
+  </si>
+  <si>
+    <t>Primo-infection : Correspond à la phase hépatique + les premiers cycles érythrocytaires. Asymptomatique jusqu'à ce qu'on atteigne le seuil  clinique de la quantité de parasites. Peut etre accompagné de fièvre irrégulière, céphalée, douleurs musculaires, asthénie, sensations de malaise et gastro-entérite
+Paludisme à fièvre périodique : La fièvre apparait lorsque les plasmodies font éclater les érythrocytes de fa_on synchrone libérante de l'hémozoine pyrogène. Une splénomégalie et une anémie accompagnent progressivement ces accès thermiques.
+Paludisme grave : Anémie sévère associée à des atteintes viscérales diverses : cérébrales, hépatiques, spléniques, pulmonaires, rénales et placentaire (mortalitée élevé pour femme enceinte et enfant)</t>
+  </si>
+  <si>
+    <t>Recherche d'Ag circulant -&gt; diag immuno par immunochromatographie
+Recherche d'Ac par immunofluorescence indirecte
+Diagnostic moléculaire PCR spécifique d'espèce.
+Orientation hémato si : Anémie, leucopénie, thrombopénie, CRP augmentée</t>
+  </si>
+  <si>
+    <t>Plasmodium Vivax (pareil que precedent juste déterminer Répartition)</t>
+  </si>
+  <si>
+    <t>Plasmodium Ovale (pareil que precedent juste déterminer Répartition)</t>
+  </si>
+  <si>
+    <t>Plasmodium Malarie (pareil que precedent juste déterminer Répartition)</t>
+  </si>
+  <si>
+    <t>Plasmodium Knowlesi (pareil que precedent juste déterminer Répartition)</t>
+  </si>
+  <si>
+    <t>Trypanosoma brucei gambiense</t>
+  </si>
+  <si>
+    <t>Trypanosoma brucei rhodensiense</t>
+  </si>
+  <si>
+    <t>Trypanosomiase humaine africaine (Maladie du Sommeil)</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est et du Sud</t>
+  </si>
+  <si>
+    <t>Homme + Animaux</t>
+  </si>
+  <si>
+    <t>Maladie létale à evolution lente</t>
+  </si>
+  <si>
+    <t>Maladie létale à évolution rapide</t>
+  </si>
+  <si>
+    <t>Liquides corporels (sang, lymphe, LCR)</t>
+  </si>
+  <si>
+    <t>Parasite extracellulaire qui se multiplie dans les liquides corporels (sang, lymphe, LCR)</t>
+  </si>
+  <si>
+    <t>Multiplication  des trypomastigotes dans le tube digestif puis migration vers les glandes salivaires</t>
+  </si>
+  <si>
+    <t>Piqure par la Glossine (mouche tsé-tsé) trouvé dans sa salive. Les deux sexes piquent le jour.
+Transmission par transfusion sanguine</t>
+  </si>
+  <si>
+    <t>Maladie très létales avec décès dans près de 100% des cas.
+Incubation : Asymptomatique ou chancre d'inoculation (trypanome)
+Généralisation : phase lymphatico-sanguine : 
+Fièvre anarchique, Faiblesse, fatigue,douleurs musculaires, Lympho-adénopathies, Oedeme de la face, Placards papulo-érythémateux, Hépato-splénomégalie, Prurit
+Polarisation cérébrale : phase méningo-encéphalique : 
+Enécphalite hémorragique, fièvre, céphalée, troubles neurologiques, changement de comportement, alétration de l'état général
+En l'absence de traitement : Cachexie sommeilleuse ( = maladie du sommeil), Coma, Mort</t>
+  </si>
+  <si>
+    <t>Sérologique, mais attention au VSG (variable surface glycoprotein) qui change régulièrement pour s'échapper aux anticorps de la réponse immunitaire.
+Anticorps, puis recherche dans parasite dans le sang (Giemsa), puis le LCR</t>
   </si>
 </sst>
 </file>
@@ -540,15 +869,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6483C4B5-9939-4327-94BE-077401734F28}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="15.42578125" style="1"/>
+    <col min="1" max="16384" width="18.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -589,107 +919,605 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="360" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="240" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="270" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="285" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Microbiologie/data/Parasitologie.xlsx
+++ b/Microbiologie/data/Parasitologie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Microbiologie\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC78FCA-0B1C-4BDF-A35F-9BFED4A94FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17351DBD-FB5B-4553-A058-FDC9EE12D00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{62235210-E2B5-47A9-AC18-0D365B32D810}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="407">
   <si>
     <t>Espèce</t>
   </si>
@@ -238,13 +238,6 @@
     <t>Porteurs sains ou colite chronique</t>
   </si>
   <si>
-    <t>Dientamoeba fragilis
-Chilomastix mesnili
-Enteromonas hominis
-Embadomonas intestinalis
-Trichomonas tenax</t>
-  </si>
-  <si>
     <t>Non pathogènes</t>
   </si>
   <si>
@@ -290,10 +283,6 @@
 Traitement des partenaires sexuels aussi.
 Traitement local acidifiant pour les femmes plutôt que médicaments.
 Préservatifs</t>
-  </si>
-  <si>
-    <t>Cryptosporidium parvum
-Cryptosporidium hominis</t>
   </si>
   <si>
     <t>Cryptosporidies (infection opportuniste majeure chez VIH)</t>
@@ -407,9 +396,6 @@
     <t>Asie Sud-Est</t>
   </si>
   <si>
-    <t>Homme et macaques</t>
-  </si>
-  <si>
     <t>Reproduction asexué et sexué.
 Resistance naturelle de certaines personnes : Hétérozygotes HbS et HbC</t>
   </si>
@@ -495,6 +481,1137 @@
   <si>
     <t>Sérologique, mais attention au VSG (variable surface glycoprotein) qui change régulièrement pour s'échapper aux anticorps de la réponse immunitaire.
 Anticorps, puis recherche dans parasite dans le sang (Giemsa), puis le LCR</t>
+  </si>
+  <si>
+    <t>Vetement long, eviter contact.
+Lutte contre les glossines via insecticides.</t>
+  </si>
+  <si>
+    <t>Trypanosoma cruzi</t>
+  </si>
+  <si>
+    <t>Trypanosomiase américaine (Maladie de Chaggas)</t>
+  </si>
+  <si>
+    <t>Amérique latine du sud</t>
+  </si>
+  <si>
+    <t>Infection à vie parfois silencieuse.
+DOIT ETRE SUSPECTEE CHEZ TOUT INDIVIDU DE RETOUR DE ZONE ENDEMIQUE</t>
+  </si>
+  <si>
+    <t>Cytoplasme de tout types de cellules nuclées</t>
+  </si>
+  <si>
+    <t>Parasite extracellulaire (trypomastigote) et intracellulaire (amastigote : dans le cytoplasme de tous type de cellules nuclées, font éclater les cellules pour libérer les trypo). Diffusion par voie sanguine uniquement</t>
+  </si>
+  <si>
+    <t>Trypo -&gt; épimastigote dans l'intestin, division binaire -&gt; rectum -&gt; Trypo métacyclique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piqure par un Triatome (réduve, punaise) trouvé dans ses dejections. Pénetre dans la peau suite au grattage. 
+Les deux sexes piquent la nuit.
+</t>
+  </si>
+  <si>
+    <t>Incubation : 5 à 20 jours
+Asymptomatique ou oedeme bi-palpébral unilatéral ou chancre d'inoculation (chaggome)
+Phase aigue : Asymptomatique ou 
+Fievre constante mais irrégulière, Hépato-splénomégalie, œdème de la face, du tronc, lympho-adénopathies, signes cardiaques (organe le plus atteint), troubles neurologiques 
+Phase chronique : Asymptomatique (90%) ou forme cardiaque  : arythmie, insuffisance cardiaque, thromboembolisme ou forme digestive : méga colon, méga oesophage</t>
+  </si>
+  <si>
+    <t>Phase aigue : Diagnostique par PCR et parasitologie pour les trypomastigote
+Phase chronique : Diagnostiques par detection d'anticorps</t>
+  </si>
+  <si>
+    <t>Benznidazol ou nifurtimox
+Chir possible pour les méga organes</t>
+  </si>
+  <si>
+    <t>Cryptosporidium parvum/ Cryptosporidium hominis</t>
+  </si>
+  <si>
+    <t>Dientamoeba fragilis/
+Chilomastix mesnili/
+Enteromonas hominis/
+Embadomonas intestinalis/
+Trichomonas tenax</t>
+  </si>
+  <si>
+    <t>Leishmania Donovani Infantum</t>
+  </si>
+  <si>
+    <t>Leishmanioses</t>
+  </si>
+  <si>
+    <t>Leishmania Mexicana (pareil que precedent juste déterminer Réservoir et Répartition)</t>
+  </si>
+  <si>
+    <t>Leishmania Amazonensis Tropica (pareil que precedent juste déterminer Réservoir et Répartition)</t>
+  </si>
+  <si>
+    <t>Leishmania Major (pareil que precedent juste déterminer Réservoir et Répartition)</t>
+  </si>
+  <si>
+    <t>Leishmania Vianna (pareil que precedent juste déterminer Réservoir et Répartition)</t>
+  </si>
+  <si>
+    <t>Bassin méditerranéen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine </t>
+  </si>
+  <si>
+    <t>Europe orientale, Moyen-Orient</t>
+  </si>
+  <si>
+    <t>Afrique/Asie</t>
+  </si>
+  <si>
+    <t>Amérique Latine</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Homme + Animaux sauvages</t>
+  </si>
+  <si>
+    <t>Homme + Rongeur</t>
+  </si>
+  <si>
+    <t>Diagnostique difficile chez patients HIV car tableau clinique atypique, présence d'autres signes infectieux disséminés</t>
+  </si>
+  <si>
+    <t>Dans les macrophages, monocytes et cellules dendritiques</t>
+  </si>
+  <si>
+    <t>Parasite intracellulaire obligatoire (amastigote, ddans les phagolysosomes des macrophages, monocytes et cellules dendritiques)</t>
+  </si>
+  <si>
+    <t>Multiplication dans le tube digestif et migration jusqu'au phraynx
+Promastigote que chez vecteur et in vitro</t>
+  </si>
+  <si>
+    <t>Piqure par un Phlébotome (sandfly) trouvé dans ses régurgitations.
+Les femelles piquent la nuit</t>
+  </si>
+  <si>
+    <t>Leishmanioses viscérale : La plus grave
+Destruction des cellules par les amastigotes, ce qui entraine une réaction inflammatoire (-&gt; Splénomégalie) et une anémie qui résulte de l'inflammation
+Leishmanioses cutanées : Le parasite infecte les macrophages situés à l'endroit de la piqure. Ca forme un granulome cutané  ± ulcéré. Incubation qq semaines à 2 mois
+Guérison spontanée laissant cicatrice ou dissémination si immunodéprimé
+Leishmanioses cutanée-muqueuse : Le parasite s'étend aux muqueuses de la bouche, du pharynx et du nez (espundia)et peut donner des mutilations profondes dans 85% des cas</t>
+  </si>
+  <si>
+    <t>Amphotéricine B, Antimonié pentavalents, Miltefosine, Paromomycine</t>
+  </si>
+  <si>
+    <t>Encephalitozoon intestinalis/Enterocytozoon bieneusi</t>
+  </si>
+  <si>
+    <t>Microsporidies</t>
+  </si>
+  <si>
+    <t>Parasite intracellulaire ubiquitaire de vertébrés et invertébrés. Reproduction asexuée.
+Spore : forme de résistance parceque paroi épaisse, Filament polaire, Vacuole postérieure (excentrée), Polaroplaste</t>
+  </si>
+  <si>
+    <t>Toutes sortes de cellules, surtout de l'intestin grêle</t>
+  </si>
+  <si>
+    <t>Entrée de la spore dans la cellule. Multiplication intracellulaire. Relargage, exocytose d'une vésicule contenant beaucoup de spores.</t>
+  </si>
+  <si>
+    <t>Infection par spores : Contamination fécale-orale</t>
+  </si>
+  <si>
+    <t>Signes cliniques peu spécifiques 
+Nécessite test de grande sensibilité (mortel), spécificité (tx on effet 2aire ++) 
+Suspicion sur base épidémio + clinique + bilan sanguin 
+Biochimie/Hématologie inconstante : Syndrome inflammatoire 
+Pancytopénie 
+Diagnostique immunologique par recherche d’Ac (95% des cas positifs) 
+Parasitologique par PCR : Indispensable 
+Amastigote intracellulaire dans moelle osseuse par étalement-biopsie + coloration PCR</t>
+  </si>
+  <si>
+    <t>Chez les immunocompétents : Gastroentérite banale (diarrhée, vomissements), (kérato-conjonctivite, infections respiratoires)
+Chez les immunodéprimés Entérocolite sévère, pneumopathie.</t>
+  </si>
+  <si>
+    <t>Ac monoclonaux fluorochromes car petite taille donc coprologie difficile</t>
+  </si>
+  <si>
+    <t>Albendazole 7j
+Fumagiline mais toxique</t>
+  </si>
+  <si>
+    <t>Balantidium coli</t>
+  </si>
+  <si>
+    <t>Balantidiose</t>
+  </si>
+  <si>
+    <t>Plus grand protozoaire à infecter l'homme</t>
+  </si>
+  <si>
+    <t>Lumière du caecum et du colon, invasion possible de la paroi intestinale.</t>
+  </si>
+  <si>
+    <t>Porc</t>
+  </si>
+  <si>
+    <t>Fécale-orale par ingestion de kyste infectant la nourriture ou l’eau.</t>
+  </si>
+  <si>
+    <t>Asymptomatique
+Entérocolite banale (diarrhée)
+Entérocolite sévère (diarrhée sanglante ; ~ amibiase)</t>
+  </si>
+  <si>
+    <t>Tétracyclines,
+Métronidazole</t>
+  </si>
+  <si>
+    <t>Examen direct des selles fraiches</t>
+  </si>
+  <si>
+    <t>Blastocystis sp.</t>
+  </si>
+  <si>
+    <t>Blastocytose</t>
+  </si>
+  <si>
+    <t>Pléomorphe, plusieurs stades et tailles.</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Gastro-entérite ? -&gt; Mal connu, mis en cause quand densité importante dans les selles et absence de tout autre diagnostique.</t>
+  </si>
+  <si>
+    <t>Enterobius vermicularis (pinworm)</t>
+  </si>
+  <si>
+    <t>Oxyurose</t>
+  </si>
+  <si>
+    <t>Ver adulte vit dans la lumière du colon.
+Durée de vie : 2 mois
+Ver adulte : petit rond, blanc, +/- 1cm
+Œufs :  Ovale asymétrique</t>
+  </si>
+  <si>
+    <t>Les œufs sont déposés par les femelles gravides à la marge anale (infectants 4 à 6h après la ponte) ; ingérés, ils éclosent et libèrent des larves dans l’IG qui migrent vers le colon pour se transformer en adultes.</t>
+  </si>
+  <si>
+    <t>Ingestion d'œufs embryonnés, par les mains sales : autocontamination</t>
+  </si>
+  <si>
+    <t>Symptomatique dans 1/3 des cas : prurit anal +++ le soir, troubles digestifs, troubles nerveux et caractériels. 
+Parfois se retrouvent dans l’appendice -&gt; appendicite ou paroi intestinale -&gt; granulome.</t>
+  </si>
+  <si>
+    <t>Identifications des œufs à la marge de l’anus par « sotch tape ». 
+Vers adultes peuvent parfois être trouvés dans matière fécale.</t>
+  </si>
+  <si>
+    <t>Mébendazole Traiter tous les membres de la famille + changer les draps etc. 
+Ongles courts - Hygiène</t>
+  </si>
+  <si>
+    <t>Toxocara Canis</t>
+  </si>
+  <si>
+    <t>Toxocarose</t>
+  </si>
+  <si>
+    <t>Adulte : blanc de 3 à 18cm 
+Œufs : sphériques, non embryonnés 
+Larves (L2) 
+Adultes et œufs que chez les chiens.</t>
+  </si>
+  <si>
+    <t>(ici c'est le chien l'hote définitif) Femelle pond œufs, élim dans les selles puis murissent dans le sol et sont infectants pdt plusieurs mois (œufs matures contiennent larve L2).</t>
+  </si>
+  <si>
+    <t>(ici l'homme est hôte intermédiaire) Ingestion œufs matures -&gt; intestin -&gt; L2 libérée et franchit muqueuse intestinale pour migrer dans tissus mous, les larves peuvent s’enkyster -&gt; granulomes et quand elles meurent elles se calcifient. 
+Larves n’évoluent pas en ver adulte !!</t>
+  </si>
+  <si>
+    <t>Ingestion d’œufs embryonnés contaminant souillées par des déjections de chiens (-&gt; enfants ++)</t>
+  </si>
+  <si>
+    <t>Asymptomatique 
+Covert toxocariasis (CT) : association de sympt. Mineurs (maux de tête, trouble respi, fièvre, etc.) 
+Syndrome de larva migrans viscéral (VLM) : (en cas d’infections massives et répétées ; signes en relation avec la localisation des larves) Digestive, pulmonaire, cutanée et cérébrale. 
+Toxocarose oculaire : (Une larve suffit) granulome rétinien. 
+Diagnostic Différentiel RETINOBLASTOME</t>
+  </si>
+  <si>
+    <t>Hyperéosinophilie massive en cas de VLM. 
+Pas si toxo oculaire 
+Pas de diagnostic parasitologique 
+Diagnostic immunologique : recherche d’Ac par ELISA (L2 de T canis +++) et western-blotting</t>
+  </si>
+  <si>
+    <t>Albendazole, Mébendazole + antiinfl dans la toxocarose oculaire 
+Individuelle : Propreté mains et aliments + éviter contact avec sol souillé 
+Collective : Déparasitage des chiens avec un antihelminthique.</t>
+  </si>
+  <si>
+    <t>Trichuris trichiura</t>
+  </si>
+  <si>
+    <t>Trichocéphalose</t>
+  </si>
+  <si>
+    <t>Adultes : Vers blanc 3 à 5 cm, hématophages, durée de vie +/- 1 an. 
+Œufs : en forme de citron, non embryonnés 
+PPP : courte</t>
+  </si>
+  <si>
+    <t>Les femelles gravides pondent 3000 à 20000 œufs/j, éliminés avec les selles, ils se développent dans le sol et deviennent infectants en 15j à 1 mois ; ingérés, ils éclosent et libèrent des larves dans l’IG, qui migrent vers le colon pour se transformer en adultes qui s’insèrent dans la muqueuse par leur portion antérieure. Les adultes, après fécondation, pondent, et les œufs sont éliminés dans le selles, etc.</t>
+  </si>
+  <si>
+    <t>Ingestion d’œufs embryonnés provenant du sol (par d’autocontamination), directe par les mains sales ou indirectes par les aliments…</t>
+  </si>
+  <si>
+    <t>Toujours en relation avec la charge parasitaire 
+Régions tempérées : tjrs asymptomatique 
+Régions tropicales : d+ abdominales, diarrhée chronique, nausées, vomissements, ténesme, selles mucoïdes, éventuellement striées de sang.</t>
+  </si>
+  <si>
+    <t>Mébendazole</t>
+  </si>
+  <si>
+    <t>Imagerie en cas de Loeffler (infiltrats pulmonaires) 
+Hématologie : Hyperéosinophilie, surtt pdt phase de migration larvaire
+Anémie quand vers hématophages 
+Identification morphologique des œufs ou des larves dans les selles (fixation des matières fécales) 
+Recherche d’anticorps sériques (sérologie) pour ASCARIS ET ANGUILLULOSE</t>
+  </si>
+  <si>
+    <t>Ascaris lumbicoides</t>
+  </si>
+  <si>
+    <t>Ascaridiase</t>
+  </si>
+  <si>
+    <t>Adulte : grand ver blanc de 10 à 20 cm pour les mâles et de 20 à 35cm pour les femelles. (Durée de vie 1 à 2 ans) 
+Œufs : ovoïdes, double coque brune mamelonnée
+PPP = 2 à 3 mois</t>
+  </si>
+  <si>
+    <t>Les adultes vivent dans la lumière de l’IG ; la femelle pond les œufs -&gt; selles -&gt; maturation dans le sol et deviennent infectants - ingestion -&gt; éclosion + libération de larves qui franchissent la muqueuse intestinale, et via la voie portale ils utilisent la circ. systémique jusqu’au poumons, puis maturation dans les poumon. 
+Après ça, ils franchissent la paroi des alvéoles à remontent l’arbre bronchique pour être déglutie -&gt; IG + transformation en adulte.</t>
+  </si>
+  <si>
+    <t>Pauci-infection : asympto. 
+Infection massive :
+- Phase de migration larvaire pulmonaire : syndrome de Loeffler : fièvre modérée, toux… 
+- Phase digestive : d+ abdo, nausée, vomissements, … 
+Complications possibles : 
+→ Chirurgicales : occlusion intestinale, engagement d’un ver dans des orifices anatomiques. 
+→ Médicales : malnutrition protéino- énergétique et retard de croissance chez l’enfant.</t>
+  </si>
+  <si>
+    <t>Ancylostoma duodénale/Necator americanus</t>
+  </si>
+  <si>
+    <t>Ankulostomes</t>
+  </si>
+  <si>
+    <t>Adulte : +/- 1 cm, hématophages, capsule buccale avec dents (Ad) ou lames coupantes (Na), vie 5 à 10 ans 
+Œuf : ovoïde, coque transparente</t>
+  </si>
+  <si>
+    <t>Œufs éliminés dans le milieu extérieur dans les selles ; dans des conditions favorables ils libèrent des larves L1, après 2 mues elles atteignent L3, puis pénètrent activement la peau -&gt; migration larvaire -&gt; IG -&gt; adultes -&gt; lésion de la muqueuse pour arriver aux capillaires -&gt; hémorragies. 
+PPP: 4-5 semaines.</t>
+  </si>
+  <si>
+    <t>Pénétration cutanée active des larves strongyloïdes par des contacts avec un sol humide souillé (près des lieux de défécation) 
+La + commune après Ascaridiase</t>
+  </si>
+  <si>
+    <t>Pauci-infection : asympto 
+Phase de pénétration cutanée : asympto 
+Phase de migration larvaire pulmonaire : toux quinteuse, rarement synd. de Loeffler 
+Phase digestive : duodénite, selles sanglantes, anémie chronique Mais morbidité +++ : perte de sang silencieuse à déficience Fe, anémie, malnutrition. 
+Syndrome larva migrans cutanée : larves d’ankylostomes de chiens et chats, éruption migrante.
+ Voyageurs au retour de zone tropicale, guérison spontanée mais peut-être tx (ivermectine)</t>
+  </si>
+  <si>
+    <t>Strongyloides stercoralis</t>
+  </si>
+  <si>
+    <t>Anguillulose</t>
+  </si>
+  <si>
+    <t>Adulte : 
+Femelle : petit ver blanc 2- 3mm 
+Mâle : pas dans l’intestin 
+Œufs : embryonnés, éclosent rapidement à larves dans les selles. 
+PPP : 1 mois</t>
+  </si>
+  <si>
+    <t>Pénétration cutanée active de larves infectantes L3 présentes dans le sol à phase de migration larvaire pour arriver dans le TD. Après 2 mues, elles se transforment en femelles adultes qui sont dans les cryptes intestinales et produisent des œufs par parthénogenèse à larves L1.
+A : auto-infection interne (larves L3 franchissent muqueuse intestinale) OU auto-infection externe (franchissement de l’anus et pénétration peau périanale). -&gt; Intestin Grele -&gt; adultes OU disséminer dans tout l’organisme (explique persistance de l’infection jusqu’à 30 ans et l’hyperinfection en cas d’immunodépression).
+B : cycle indirect court : L1 dans le milieu ext. par les selles à L3 potentiellement infectantes pour la peau.
+C : cycle indirect long : L1 dans le milieu ext. muent 4 fois -&gt; adultes libres (mâles et femelles) qui s’accouplent et produisent des œufs -&gt; L1 -&gt; de nouveau adultes ou en larves L3 potentiellement infectantes.</t>
+  </si>
+  <si>
+    <t>Pénétration cutanée active des larves.Pénétration cutanée active des larves.</t>
+  </si>
+  <si>
+    <t>Pauci-infection : 
+- asympto 
+- Si charge parasitaire suffisante : lésions cutanées (porte d’entrée), toux sèche, irritation trachée, sympt GI.
+ - Anguillulose chronique (cf. Réinfections permanentes par autoinfestation) 
+Signes digestifs : d+ abdo péri-ombilicales ou diffuses, diarrhées
+Signes cutanés : prurit, urticaire, larva currens au niveau de la région périanale, des fesses, ceinture, abdomen, tronc.
+Signes pulmonaires : syndrome de Loeffler, asthme, broncho- pneumopathie. Elle peut aussi être totalement silencieuse, le patient pouvant rester porteur des dizaines d’années MAIS si immunodépression è évolution vers une hyperinfection puis une dissémination à d’autres tissus (larves migrent, des bactéries sont emportées à septicémie), décès dans quasi 100% des cas si non traité TX : IVERMECTINE</t>
+  </si>
+  <si>
+    <t>Diagnostic biologique : 
+• Hyperéosinophilie sanguine : ascaridiase, ankylostomiase et anguillulose (peut-être un signe d’appel), plus élevée pendant la phase de migration larvaire. 
+• Anémie lorsque les vers sont hématophages (trichocéphalose, ankylostomiase) ou s’il y a des lésions de la muqueuse intestinale (surtout anguillulose), dont l’importance dépend de la charge parasitaire. 
+ Diagnostic parasitologique : 
+• Recherche et indentification morphologie (microscope) des œufs ou larves dans les selles par examen direct ou après concentration (après PPP). 
+Méthodes particulières pour les larves d’anguillules. 
+Recherche d’Ac : tests sérologiques existant pour ascaris et anguillulose (aide au diagnostic précoce de l’ascaridiase pdt période PPP)</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis/pseudospiralis/nativa/nelsoni/britovi</t>
+  </si>
+  <si>
+    <t>Trichinose</t>
+  </si>
+  <si>
+    <t>Rongeurs, mammifères</t>
+  </si>
+  <si>
+    <t>Adultes : blancs
+Mâle 1.2 à 1.6 mm
+Femelle : 2 à 4mm
+Pas d’œufs (⋒⋓
+vivipares)
+Larves (L1)
+immatures à la
+ponte</t>
+  </si>
+  <si>
+    <t>Muscles</t>
+  </si>
+  <si>
+    <t>Intestin + Muscles</t>
+  </si>
+  <si>
+    <t>Adultes et larves infectantes sont présentes chez le même hôte sans stade libre.
+Pas d’autoinfestation, il faut un Changement d’hôte pour qu’un nouveau cycle ait lieu (le prédateur ingère une proie infectée). 
+Ingestion larves enkystées dans les tissu musculaire -&gt; Libération par la digestion -&gt; Maturation en adultes dans l’IG -&gt; Ponte des larves qui passent la paroi intestinale -&gt; Dissémination par voie sanguine etc -&gt; Muscles squelettiques -&gt; S’enroulent dans les myocytes, croissent, et deviennent infectantes en 3-4 semaines</t>
+  </si>
+  <si>
+    <t>Ingestion de viande contaminée crue ou peu cuite</t>
+  </si>
+  <si>
+    <t>Physiopathologie : intense réaction inflammatoire + myosite 
+Symptômes variables selon :
+- Espèce de trichine et charge parasitaire : asympto à fatal 
+- Présence adultes dans intestin (fixation ds la muqueuse intest dans les 48h) : Gastroentérite (50% des cas), d+ abdominales, vomissements. 
+- Migration des larves vers les muscles (dès la 1ère semaine) : fièvre élevée continue (39-40°C), oedèmes de la face et des paupières. 
+- Présence de larves enkystées dans les muscles : myalgies intenses, asthénie (Nécessitant souvent l’alitement). 
+Evolution : 
+- Infection légère : résolution 
+- Infection sévère : mortelle dans 0,2% des cas.</t>
+  </si>
+  <si>
+    <t>Important de traiter précocement pour éviter complications 
+Albendazole Mébendazole 
+Individuelle : forte cuisson et/ou congélation des viandes 
+Collective : dératisation des abattoirs et porcheries !! contrôle vétérinaire important</t>
+  </si>
+  <si>
+    <t>Orientation hématologique : 
+- Hyperleucocytose 
+- Hyperéosinophilie massive et précoce (parfois signe d’appel) 
+Orientation biochimique : ↓ des enz. musculaires +++ CPK, LDH et aldolase 
+Diagnostic parasito : Kystes en forme de citron, biopsies musculaires, peu sensible 
+Diagnostic immuno ++ : sérologie positive dans 95% des cas au 2ème mois. 
+Souvent cas groupés et concomitants dans l’entourage du patient</t>
+  </si>
+  <si>
+    <t>Anisakis simplex</t>
+  </si>
+  <si>
+    <t>Aniskiase</t>
+  </si>
+  <si>
+    <t>Japon</t>
+  </si>
+  <si>
+    <t>Poissons marins ou calamars</t>
+  </si>
+  <si>
+    <t>Trixène</t>
+  </si>
+  <si>
+    <t>Parasites de mammifères marins et de poissons/crustacés 
+L’homme est un hôte accidentel et une impasse parasitaire</t>
+  </si>
+  <si>
+    <t>La larve s’installe dans la muqueuse gastrique ou intestinale et meurt</t>
+  </si>
+  <si>
+    <t>L’homme peut ingérer une larve présente dans les poissons marins ou calamars crus 
+Poissons infectés partout dans le monde 
+90% des cas au Japon</t>
+  </si>
+  <si>
+    <t>Gastrique : (Paroi estomac) après 1 à 12h 
+-&gt; Début brutal, d+ épigastrique sévère, nausée, vomissement, légère fièvre. 
+Résolution en qqe jours ou évolution chronique 
+Intestinale (paroi intestin grêle ou colon)
+-&gt;  D+ abdo constante après 5 à 7j Parfois ascite et signe péritonéaux Allergique (Consommation fréq poisson cru) 
+-&gt;  1 à 24h post ing. Allant de l’urticaire à l’angioedème</t>
+  </si>
+  <si>
+    <t>Via la consommation 
+Gastroscopie : découverte de la larve dans la muqueuse 
+Recherche d’Ac si intestinale ou allergique (ELISA)</t>
+  </si>
+  <si>
+    <t>Extraction de la larve pdt l’endoscopie si encore présente
+Albendazole</t>
+  </si>
+  <si>
+    <t>Wuchereria bancrofti/Brugia malayi</t>
+  </si>
+  <si>
+    <t>Filariose lymphatique</t>
+  </si>
+  <si>
+    <t>Tropicales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microfilaires : dans le sang, des millions de larve par ponte </t>
+  </si>
+  <si>
+    <t>Moustique : Wb -&gt; Culex (anophèle eau polluées) Bm -&gt; Mansonia (marécages etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filaires adultes : Vers filiformes de 2 à 10cm 
+Vivent dans les lymphatiques afférents et les ggl (4à 6 ans) 
+</t>
+  </si>
+  <si>
+    <t>Lymphatique et ganglions</t>
+  </si>
+  <si>
+    <t>Piqure vecteur</t>
+  </si>
+  <si>
+    <t>Œdème dû à l’obstruction mécanique causée par les vers dans les lymphatiques
+Certains individus des zones endémiques ne sont jamais infectés. Certains enfants infectés prennent du temps avant d’avoir des symptômes. 1/3 des infectés ont des symptômes 
+Filariose asymptomatique : individus constituent un réservoir Symptômes aigus (manifestations récurrentes, par épisodes) : fièvre, lymphadénites (ggl gonflé bien palpable), lymphangites superficielles ou profondes 
+Filariose chronique symptomatique : lymphangites et adénites chroniques -&gt; imagerie médicale (écho, lymphographie, lymphoscintigraphie), lymphœdèmes : organes génitaux et glande mammaire (hydrocèle fréquent chez Wb) -&gt; impact social très important, éléphantiasis (des membres inférieurs = le plus fréquent) 
+Syndrome du poumon hyperéosinophilique tropical = Pneumopathie interstitielle diffuse à cause des réactions. Les individus amicrofilarémiques sont sympto et les individus microfilarémiques sont asympto</t>
+  </si>
+  <si>
+    <t>Hémato : Hyperéosinophilie 
+Parasito : recherche de microfilaires dans le sang (périodicité nocturne) et les liquides d’épanchement. On ne trouvera les microfilaires que tardivement après la piqûre 
+Immuno : recherche d’Ag circulants test rapide sur bandelette +++ pour Wb et recherche d’Ac dans sérum 
+Moléculaire : PCR (pas en routine)</t>
+  </si>
+  <si>
+    <t>DEC + albendazole (SAUF si coinfection Onchocerca ou Loa Loa) OU Ivermectine + albenzazole + Doxycicline (pour tuer les Wolbachia) 
+Traitement de masse, promotion de soins d’hygiène simple, lutte contre les moustiques 
+Prophylaxie individuelle : Vêtements longs etc.</t>
+  </si>
+  <si>
+    <t>Onchocerca volvulvus</t>
+  </si>
+  <si>
+    <t>Onchocercose</t>
+  </si>
+  <si>
+    <t>Afrique intertropicale, Yémen, Amérique</t>
+  </si>
+  <si>
+    <t>Nodules sous cutanés</t>
+  </si>
+  <si>
+    <t>Filaire adulte : Vers filiformes de 20 à 50cm. Vivent dans les nodules sous cutanés</t>
+  </si>
+  <si>
+    <t>Microfilaire : qqe micromètres, circulaire dans le derme ou l’œil. 2 ans de vie</t>
+  </si>
+  <si>
+    <t>Morbidité : 6 Millions souffrent d’onchocercose cutanée, 350000 à 500 000 aveugles. Rarement mortel</t>
+  </si>
+  <si>
+    <t>Vecteur : Simulie (mouche noire) dont les larves se déposent en milieu aquatique à débit rapide. -&gt; Cécité des rivières</t>
+  </si>
+  <si>
+    <t>Association de 4 syndromes à des degrés divers : sympto dûs aux microfilaires = différence avec les autres filarioses 
+Syndrome cutané: prurit féroce, dépigmentation 
+Syndrome kystique = onchocercome 
+Adénopathies inguinales : « aine pendante » et éléphantiasis des organes génitaux 
+Syndrome oculaire : kératite ou chorio-rétinite -&gt; cécité.</t>
+  </si>
+  <si>
+    <t>Hémato : hyperéosinophilie 
+Parasito : recherche de microfilaires dans la peau ou dans la chambre antérieure de l’œil. 
+Recherche de vers adultes dans onchocercome. Patch test à la DEC -&gt; rash papulaire à 24h : onchocercose 
+Immuno: recherche d’Ac + dans 80%</t>
+  </si>
+  <si>
+    <t>Ivermectine +++ + Doxycycline (cf. Wolbachia) Dénodulisation Elimination des larves par dispersion aérienne de larvicide</t>
+  </si>
+  <si>
+    <t>Loa loa</t>
+  </si>
+  <si>
+    <t>Loase</t>
+  </si>
+  <si>
+    <t>Afrique, pourtour du golfe de Guinée</t>
+  </si>
+  <si>
+    <t>Tissus sous-cutanées</t>
+  </si>
+  <si>
+    <t>Filaires adultes : Vers filiformes de 3 à 7cm
+Vis dans les tissus sous-cutanés jusqu’à 15 ans, temps de maturation pour passer de larve infectante en adulte = 3-4 ans, pas de Wolbachia</t>
+  </si>
+  <si>
+    <t>Microfilaires : sang avec périodicité diurne</t>
+  </si>
+  <si>
+    <t>Vecteur : chrysops, pique le jour (vit dans forêt tropicale humide)</t>
+  </si>
+  <si>
+    <t>Souvent asymptomatique 
+Passage du ver sous la conjonctive ou sous la peau 
+Oedèmes de Calabar (souscutanés) 
+Ver peut envahir SNC 
+encéphalopathie + coma (si haute microfilémie ou après traitement antihelminthique)</t>
+  </si>
+  <si>
+    <t>Hémato : Hyperéosinophilie ++ 
+Parasito : Filaire sous la conjonctive ou peau Microfilaires sanguins avec périodicité diurne 
+Immuno : recherche d’Ac par sérologie + dans 80% cas</t>
+  </si>
+  <si>
+    <t>Ivermectine
+Chirurgical
+Pas de traitement de masse : réactions néfastes aux médicaments</t>
+  </si>
+  <si>
+    <t>Dracunculus medenensis</t>
+  </si>
+  <si>
+    <t>Dracunculose</t>
+  </si>
+  <si>
+    <t>Afrique et Yemen</t>
+  </si>
+  <si>
+    <t>Estomac puis tissus sous cutanées</t>
+  </si>
+  <si>
+    <t>Filaire adulte : Long ver blanc (Male 1-3cm, femelle 70-120cm) 
+Le cyclops meurt dans l’estomac et libèrent des larves, après transformation et accouplement, les femelles migrent dans les tissus sous-cutanés, préférentiellement dans les membres inférieurs. Après 1 ans environ, la femelle induit une phlyctène cutanée qui se rompt La femelle sort quand la lésion est en contact avec de l’eau pour libérer des larves qui seront ingérés par des cyclops</t>
+  </si>
+  <si>
+    <t>Contamination par ingestion d’eau non filtrée contenant des cyclops (petits crustacés d’eau douce) infectés.</t>
+  </si>
+  <si>
+    <t>La symptomatologie débute avec la sortie du ver (90% memb inf) : ulcération douloureuse avec le ver émergeant en son centre. 
+Calcifications in situ suite à la sortie du ver. 
+Complications fréquentes à cause des surinfections</t>
+  </si>
+  <si>
+    <t>Parasito : ver visible au centre de l’ulcère et au contact d’un peu d’eau -&gt; émission de microfilaires.</t>
+  </si>
+  <si>
+    <t>Lente extraction mécanique du ver Désinfection et soins infirmiers des lésions.
+Prophylaxie individuelle par filtrage ou ébulition de l’eau de boisson,
+Collective par éducation sanitaire, puits à margelle, et chimique contre le cyclops</t>
+  </si>
+  <si>
+    <t>Taenia saginata/Taenia solium</t>
+  </si>
+  <si>
+    <t>Taeniases</t>
+  </si>
+  <si>
+    <t>Homme + Bovin (saginata)/porc (solium)</t>
+  </si>
+  <si>
+    <t>Stade larvaire = cysticerque : vésicule de 5 à 15mm remplie de liquide, contenant le scolex invaginé d’un futur tænia</t>
+  </si>
+  <si>
+    <t>Adulte : ver plat segmenté, Tsag (4-5m) et Tsol (2-7m). 
+Scolex avec 4 ventouses et un rostre (Tsag) ou une double rangée de crochet (Tsol) Vie 25-30 ans 
+Cestodes = hermaphrodites. 
+Œufs : Sphériques, embryonnés, Tsag et Tsol</t>
+  </si>
+  <si>
+    <t>Contamination : ingestion viande crue ou peu cuite de bovins ou de porc contenant des cysticerques. Il se développe en 2 à 4 mois en Tænia adulte</t>
+  </si>
+  <si>
+    <t>Asymptomatique dans la majorité des cas : sensation particulière au passage du proglottis par l’anus, découverte dans la literie (Tsag) ou à la surface des selles (Tsol). 
+Symptomatologie bénigne pléiomorphe peut être observée dans la phase de maturation du ver. 
+Rare : appendicite ou cholangite due à une migration de l’anneau.</t>
+  </si>
+  <si>
+    <t>Parasitologique : Après 3 mois, identification des œufs dans les selles ou à la marge de l’anus. (Scotch test) La différence entre Tsag (&gt;15 ramifications) et Tsol (&lt;15 ramifications) peut se faire sur la morpho des proglottis et au niveau du scolex.</t>
+  </si>
+  <si>
+    <t>Niclosamide Praziquantel Si Tsol : associer un traitement purgatif (éviter la libération d’œufs lors de la lyse des anneaux).</t>
+  </si>
+  <si>
+    <t>Diphyllobothrium latum</t>
+  </si>
+  <si>
+    <t>Botriocéphalose</t>
+  </si>
+  <si>
+    <t>Régions froides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertébrés piscivores (dont l'homme) </t>
+  </si>
+  <si>
+    <t>Iléon</t>
+  </si>
+  <si>
+    <t>HD : vertébrés piscivores dont l’homme (Adulte vit dans iléon)
+HI : 2 HI successifs (petits crustacés et poissons d’eau douce)
+Adulte : scolex avec bothridie (2 fentes latérales)</t>
+  </si>
+  <si>
+    <t>Contamination : ingestion de poissons infectés (crus ou peu cuits)</t>
+  </si>
+  <si>
+    <t>Taeniase banale chez l’homme + anémie parabiermenienne (pernicieuse, déficit en vit B12) si infection longue durée</t>
+  </si>
+  <si>
+    <t>Identification des œufs dans les selles + anémie macrocytaire mégaloblastique (déficience Vit B12)</t>
+  </si>
+  <si>
+    <t>Niclosamide Praziquantel + supplémentation de Vit B12</t>
+  </si>
+  <si>
+    <t>Taenia solium (larve)</t>
+  </si>
+  <si>
+    <t>Cysticercose</t>
+  </si>
+  <si>
+    <t>Homme + Porc</t>
+  </si>
+  <si>
+    <t>Helminthiase du porc et de l’homme due à la larve = cysticerque (0.5 à 1.5cm, aspect laiteux, vésicule sphérique ou ovoïde).
+HI = homme, porc La plus souvent retrouvée à l’origine d’atteinte neuro chez l’IC, considérée comme 1ère cause infectieuse d’épilepsie.
+De + en + observée ds pays industrialisés à cause voyage + pop émigrées.</t>
+  </si>
+  <si>
+    <t>Contamination par ingestions d’œufs (non par ingestion de de viande de porc contenant la larve)
+- Ingestion eau ou légumes
+- Auto- infestation</t>
+  </si>
+  <si>
+    <t>Physiopath : réactions inflammatoires. (Surtout sous-cut ou œil et cerveau) Durée de vie de 2 à 5 ans puis se calcifie 
+Formes bénignes : tissus sous-cutanés ou muscles ,petits nodules indolores. 
+Formes graves :
+-Oculaire : troubles vision, exophthalmie 
+-Neurocysticercose : asympto ou atteinte neuro ou épilepsie.</t>
+  </si>
+  <si>
+    <t>Imagerie (scan, RMN) cerveau : images rondes hypodenses intra- parenchymateuses, image caract des kystes = en grelot 
+Hémato : éosinophilie sang + LCR inconst 
+Parasito (rare) : identification cysticerque par biopsie 
+Immuno : recherche d’Ac ds sérum et LCR par ELISA et western blotting +++</t>
+  </si>
+  <si>
+    <t>Praziquantel Albendazole Neurochirurgie</t>
+  </si>
+  <si>
+    <t>Echinoccocus Granulosus</t>
+  </si>
+  <si>
+    <t>Hydatidose</t>
+  </si>
+  <si>
+    <t>Intestin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atteint homme et animaux (Zooanthroponose) Homme = impasse parasitaire / HI/ Hôte accidentel
+Parasite adulte (chien) : Petit vers plat segmenté de 3 à 6mm), avec un scolex et un strobile de 3 proglottis Vie 1 an
+Œufs (chien) = Tænia
+Larve (kyste hydatique) </t>
+  </si>
+  <si>
+    <t>Chez l’homme, la larve est libérée dans l’intestin, traverse la paroi, et s’installe dans un organe ou il forme un kyste hydatique expansif (foie, poumons, pancréas, cerveau, cœur, intestin)</t>
+  </si>
+  <si>
+    <t>Contamination par ingestion des œufs éliminés dans les selles des chiens infectés</t>
+  </si>
+  <si>
+    <t>Lésion fondamentale : larve forme un kyste hydatique expansif de 1 à 20 cm avec des vésicule filles La paroi à 3 mb : Mb Proligère, la cuticule, et l’adventice 
+Le kyste fertile contient des protoscolex vivant, le kyste mort se calcifie Le kyste contient un liquide hydatique sous pression. 
+Kyste du foie : Lgtmps asymptomatique jusqu’à la découverte d’hépatomégalie ou signes de compressions 
+Kyste pulmonaire : D+ thoraciques, toux, hémoptysie, et vomis de liquide roche si rupture (+choc anaphylactique et dissémination et hydatidose secondaire)</t>
+  </si>
+  <si>
+    <t>Imagerie médicale : Echographie hépatique, scan : masse Radio thorax : refoulement de la coupole diaphragmatique  si kyste hépatique Opacité arrondie bien limitée si kyste pulmonaire 
+Hémato : Hyperéosinophilie inconstante 
+Parasito : Pas d’examen du liquide de ponction parce que risque de rupture Identification de crochet dans les crachats 
+Immuno : Recherche d’Ac +++</t>
+  </si>
+  <si>
+    <t>CHIRURGICAL CHAQUE FOIS QUE POSSIBLE : L’élimination du kyste parasitaire n’est pas suffisante et il faut un tx médical avec (Albendazole) 
+Suivi du taux d’Ac pendant qqe années, il doit diminuer progressivement S’il augmente -&gt; Hydatidose secondaire</t>
+  </si>
+  <si>
+    <t>Echinococcus multilocularis</t>
+  </si>
+  <si>
+    <t>Echinococcos alvéolaire</t>
+  </si>
+  <si>
+    <t>Hémisphère nord</t>
+  </si>
+  <si>
+    <t>Homme Renard Rongeurs</t>
+  </si>
+  <si>
+    <t>HD : Renard, plus rarement chien- viverrin, loup, coyote, chat HI : Petits rongeurs
+Homme est une impasse parasitaire
+Le kyste est une masse de tissu parasitaire due au bourgeonnement des membranes Il ne contient pas de liquide et rarement des protoscolex Il à une structure spongieuse à alvéole</t>
+  </si>
+  <si>
+    <t>Foie</t>
+  </si>
+  <si>
+    <t>Contamination par ingestion d’œufs très résistant au froid et à l’humidité</t>
+  </si>
+  <si>
+    <t>Tumeur mal limitée, envahissante, infiltrante
+Le kyste est presque tjr hépatique et peut envahir d’autres tissus pour métastaser vers les organes
+Plusieurs mois à années entre ingestion et symptômes. Ils apparaissent quand la compression est trop forte.
+D+ HCD, hépatomégalie, ictère Autres localisation possibles Mortel dans 90% des cas sans traitements
+ATTENTION DD Cancer du foie</t>
+  </si>
+  <si>
+    <t>Imagerie : Masse à contour irrégulier avec zones hyper et hypo denses (CT)
+Hémato : Généralement normale
+Parasito : Ponction possible, pas de risque rupture, biopsie hépatique ++
+Immuno, PCR
+SYMPTOMES + IMAGERIE + PCR + SERO</t>
+  </si>
+  <si>
+    <t>Schistosomiase Mansoni/Japonicum.Haematobium</t>
+  </si>
+  <si>
+    <t>Schistosomiase</t>
+  </si>
+  <si>
+    <t>Mansoni (territoire
+vasculaire mésentérique
+inférieur du colon) et
+Japonicum (territoire
+vasculaire mésentérique
+supérieur) -&gt;
+Schitosomiase intestinale
+et hépatosplénique
+Haematobium (plexus
+veineux vésical,
+hémorroidal et uro-
+génital) -&gt; Schitosomiase
+urinaire</t>
+  </si>
+  <si>
+    <t>Œufs éclosent dans le milieu extérieur, se développent en myracidies, mangées par un mollusque où se déroule une reproduction asexuée.
+Libération de furcocercaires qui vont atteindre l’hôte définitif par la peau, devenant un schistosomule. Atteinte du cœur et des poumons, maturation 3-4j puis à veinules mésentériques ou vésicales (maturation en adulte 5-8 semaines).</t>
+  </si>
+  <si>
+    <t>La ponte débute environ 5 semaines après l’infection et peut durer une dizaine d’année. Chaque femelle peut pondre 2 à 3000 œufs/jour</t>
+  </si>
+  <si>
+    <t>Contamination par pénétration transcutanée des furcocercaires contenues dans l’eau douce Elles produisent des protéases capable de dégrader la kératine et d’autres protéines. La larve perd son appendice lors de son adhésion et deviens une schistosomule</t>
+  </si>
+  <si>
+    <t>1) Manifestations aigues : (surtout touristes) 
+- Dermatite des nageurs -&gt; Urticaire localisé qqe mins après l’entrée 
+- Kératite de Katayama -&gt; Réaction inflammatoire systémique au schistosomule migrante, 1 à 4 semaines après contamination, syndrome grippal. 
+- Symptômes abdominaux ou urogénitaux -&gt; Crampes, diarhées, etc. 
+2) Manifestations chroniques : (surtout locaux) Dû aux granulomes inflammatoires en réaction à la présence des œufs 
+Schistosomiase urogénitale : Bullins - Afrique intertropicale et de l’ouest, jusqu’à 90% de la pop Franchissement de la paroi vésicale par les œufs -&gt; Hématurie = SIGNE D’APPEL Atteintes diverses du système urogénital, risque accru cancer de la vessie 
+Schistosomiases intestinale et hépatosplénique Planorbe -&gt; Afrique intertropicale de l’Est et de l’Ouest, Amérique du Sud et Caraïbes Oncomélania -&gt;Extrême Orient Surtout colon et rectum. Inconfort, douleurs abdominales intermittentes ou chroniques, diarrhée, etc. Chez les enfants et les ado surtout (80%), réaction inflammatoire hépatique vis-à-vis des œufs emprisonnés -&gt; hépatomégalie du lobe droit, splénomégalie nodulaire Chez les adultes et les patients infectés depuis de nombreuses années, évolution + rapide avec Japonicum (mois) que Mansoni (années) Fibrose -&gt; Occlusion Veine porte -&gt; Hypertension portale -&gt; Circulation colatérale, shunt porto-cave, etc. -&gt; Risque d’hémorragie -&gt; Hépatomégalie et splénomégalie ++ 
+3) Manifestations ectopiques Pulmonaires -&gt; Fibrose, HT pulmonaire Neuroschistosomiase -&gt; Migration ectopique des œufs au niveau du SNC</t>
+  </si>
+  <si>
+    <t>Dermatite du nageur : Signes cutanés Fièvre de Katayama : Orientation via fièvres, voyage récent, CRP + et hyperéosinophilie PAS DE DIAG PARASITO
+Immuno : Ac via ELISA Orientation hémato des manifestations chroniques, imagerie, etc.
+Parasito 2 mois après la contamination, identification des œufs. SH : Culot des urines, biopsie vésicale/rectale SM, SJ : selles, biopsies rectales ou colon
+Echographie : Dilatation de la veine porte et fibrose tubulaire des espaces portes -&gt; Sclérose en tuyau de pipe de Symmers</t>
+  </si>
+  <si>
+    <t>Anti-helmintiques : Praziquantel -&gt; TUE LES VERS ADULTES UNIQUEMENT
+Fièvre de Katayama : Ajouter corticostéroides Neuroschitosomiase : cortico + anti- convulsants
+Prophylaxie : Eviter le contact avec l’eau contaminée, port de botte, etc. Dépistage et traitement des porteurs, lutte contre les mollusques</t>
+  </si>
+  <si>
+    <t>Fasciola hepatica/Fasciola gigantica</t>
+  </si>
+  <si>
+    <t>Distomatose</t>
+  </si>
+  <si>
+    <t>Herbivores et homme</t>
+  </si>
+  <si>
+    <t>Canaux biliaires intrahépatiques</t>
+  </si>
+  <si>
+    <t>Douve du foie, 1 à 1,5 cm pour hepatica et 2-3 cm pour gigantica
+Adultes dans le foie (canaux biliaires intrahépatiques)
+Œufs non embryonnés et operculés dans les selles Distomatose hépatique</t>
+  </si>
+  <si>
+    <t>Hétéroxène indirecte</t>
+  </si>
+  <si>
+    <t>Ingestion de métacercaires -&gt; larve libérée dans le duodénum -&gt; atteint la cavité péritonéale -&gt; rentre dans le foie -&gt; devient adulte dans les canaux biliaires.
+Ponte d’œufs qui s’embryonnent dans l’eau et libèrent des myracidies qui se développent dans l’HI.
+Deviennent des cercaires qui s’accrochent sur la végétation et deviennent méta. (ex de fasciola hépatica)</t>
+  </si>
+  <si>
+    <t>Ingestion de méta sur plantes crues ou libres, PAS via foie infectés</t>
+  </si>
+  <si>
+    <t>Distomatose hépatique : Asympto dans les infections légère, l’homme héberge généralement peu de douves, alors que les herbivores en hébergent plusieurs centaines.
+Incubation asympto (plusieurs semaines à 2 mois)
+Phase aigüe : Migration de la larve dans la cavité péritonéale, apparition progressive sur 2 à 3 mois.
+Triade sympto : Hépatomégalie douloureuse /Fièvre prolongée / Asthénie + éventuellement nausée, vomissement, urticaire
+Phase chronique : +/- 6 mois après la contamination, dure 10 à 15 ans. Obstruction et inflammation des voies biliaires, crises de colique hépatiques à répétition, ictère, etc.</t>
+  </si>
+  <si>
+    <t>Hyperéosinophilie majeure dans la phase aigue
+Imagerie de la patho biliaire
+Parasitologie : Œufs dans les selles ou le liquide de tubage duodénal (seulement après 2 mois) ou découverte chir des œufs
+Immuno : Recherche d’Ac ++ (diagnostic précoce)</t>
+  </si>
+  <si>
+    <t>Triclabendazole, efficace à 80-100% dans la phase aigue mais à 30% dans la phase d’état.
+Chirurgie
+Prophylaxie : Eviter de manger du cresson sauvage cru ou de boire de l’eau suspecte
+Surveillance des cressonnières, tt régulier du bétail</t>
+  </si>
+  <si>
+    <t>Pediculus humanus capitis</t>
+  </si>
+  <si>
+    <t>Pédiculose de la tête</t>
+  </si>
+  <si>
+    <t>Cheveux</t>
+  </si>
+  <si>
+    <t>La femelle pond 5 à 10 lentes/j pendant +/- 30 j 
+Œufs (= lentes) : près du cuir chevelu (&lt; 1 cm), éclosent après 1 semaine 
+Développement des œufs via 3 stades nymphaux -&gt; adultes : 16 à 17 jours</t>
+  </si>
+  <si>
+    <t>Transmission exclusivement interhumaine, par contact direct.</t>
+  </si>
+  <si>
+    <t>Prurit du cuir chevelu surtout au niveau de la nuque et derrière les oreilles (dû aux réactions allergiques aux piqûres) 
+Peut aussi être asympto 
+Si infection chronique, risque de surinfection par staphylocoque (MRSA), streptocoques, etc.</t>
+  </si>
+  <si>
+    <t>Identification macroscopique des poux :
+ - Lentes collées aux cheveux 
+- Nymphes blanchâtres et poux adultes brunâtres sont mobiles</t>
+  </si>
+  <si>
+    <t>Peigne tout les 2-3j sur cheveux mouillés Par voir orale : ivermectine 
+Topiques :
+- Insecticides neurotoxiques : actifs sur les adultes et les nymphes (nécessité de répéter le traitement 7 à 10 jours plus tard) Perméthrine, Malathion, Dépalléthrine, Spinosad
+- Pédiculicides dérivés de plantes
+- Dimeticones 
+Prophylaxie : élimination des poux dans l’environnement (chaleur, famine, etc)</t>
+  </si>
+  <si>
+    <t>Pediculus humanus humanus ou corporis</t>
+  </si>
+  <si>
+    <t>Pédiculose corporelle</t>
+  </si>
+  <si>
+    <t>Epaule et dos</t>
+  </si>
+  <si>
+    <t>Peut-être vecteur de l’infection à Rickettsia ou Borrelia</t>
+  </si>
+  <si>
+    <t>Prurit violent des épaules et du dos 
+Strie de grattage, prurigo au niveau du thorax</t>
+  </si>
+  <si>
+    <t>Contamination par les vêtements ou la literie souillée</t>
+  </si>
+  <si>
+    <t>Poux adultes mobiles visibles sur le corps et les vêtements (pas de lentes visibles).</t>
+  </si>
+  <si>
+    <t>Bain chaud et savonneux, insecticides, stériliser les vêtements.
+Prophylaxie : hygiène perso</t>
+  </si>
+  <si>
+    <t>Phtirius pubis ou inguinalis (morpion)</t>
+  </si>
+  <si>
+    <t>Phtiriase</t>
+  </si>
+  <si>
+    <t>Hématophages</t>
+  </si>
+  <si>
+    <t>Au niveau des poils pubiens</t>
+  </si>
+  <si>
+    <t>Transmission par contact sexuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prurit pubien nocture ++ </t>
+  </si>
+  <si>
+    <t>Adultes et lentes visibles sur la pilosité corporelle</t>
+  </si>
+  <si>
+    <t>Bain savonneux + insecticide
+Prophylaxie : hygiène perso</t>
+  </si>
+  <si>
+    <t>Sarcoptes scabei hominis</t>
+  </si>
+  <si>
+    <t>Gale</t>
+  </si>
+  <si>
+    <t>Acarien de très petite taille. Parasite obligatoire et strictement humain.
+A la surface ou épaisseur de l’épiderme, la femelle creuse des galeries sous la peau.
+Mâle meurt après l’accouplement, femelle pond 3 à 5 œufs/jours
+Cycle complet œuf -&gt; adulte prend 2 à 3 semaines</t>
+  </si>
+  <si>
+    <t>Epiderme</t>
+  </si>
+  <si>
+    <t>Transmission des femelles ovigères directe, de peau à peau +++, indirecte par le linge (bcp moins fréquent)</t>
+  </si>
+  <si>
+    <t>Incubation : asympto
+Triade symptomatique : prurit généralisé intense (surtout nocturne) de tout le corps sauf la tête et le cou, sillon sinueux blanchâtre (voir zones particulièresà et vésicules perlées.
+RISQUE DE SURINFECTION DES LESIONS DE GRATTAGE -&gt; MRSA
+Forme hyperkérotosique chez les ID : gale norvégienne</t>
+  </si>
+  <si>
+    <t>Examen des lésions et recherche de sarcoptes adultes, larves ou œufs au microscope dans prélèvement ; biopsie cutanée.</t>
+  </si>
+  <si>
+    <t>Local : acaricides d’application cutanée, le prurit peut continuer 2 à 3 semaines après le tx 
+Systémique oral : ivermectine ++
+Désinfection des draps et vêtements + traitement familial et des partenaires sexuels</t>
+  </si>
+  <si>
+    <t>Cimex lectularius</t>
+  </si>
+  <si>
+    <t>Punaise de lit</t>
+  </si>
+  <si>
+    <t>Hématophage à tout les stades
+Vit dans les lits, les plinthes, les tapisseries, etc.</t>
+  </si>
+  <si>
+    <t>Lits</t>
+  </si>
+  <si>
+    <t>Nuisance
+Piqure indolore mais prurigineuse après qqe min
+Lésion macropapulaire 0,5 à 2-6 cm chez certaines personnes</t>
+  </si>
+  <si>
+    <t>Recherche méticuleuse dans les endroits fréquents pour les éliminer</t>
+  </si>
+  <si>
+    <t>Tunga penetrans</t>
+  </si>
+  <si>
+    <t>Tungose</t>
+  </si>
+  <si>
+    <t>Peu de spécificité d’hote, l’homme est piqué par des puces qui viennent d’animaux
+90% des cas puce du chat
+Seul le stade adulte est parasite (hématophage)</t>
+  </si>
+  <si>
+    <t>La puce se développe dans l’épiderme, une fois gravide elle produit une réaction inflammatoire.</t>
+  </si>
+  <si>
+    <t>Nuisance (piqure peuvent induire une dermatite)
+Vecteur de la peste bubonique
+Vecteur du typhus murin 
+Infection par marche sur la pouce ou saut de la puce sur l’homme -&gt; surtout pied et orteils</t>
+  </si>
+  <si>
+    <t>Incubation de 7j à 3 semaines 
+Prurit 
+Papule avec un point noir central</t>
+  </si>
+  <si>
+    <t>Pour les éliminer, traiter les animaux et l’environnement
+Excision, attention à enlever la puce en entier + antiseptique local</t>
+  </si>
+  <si>
+    <t>Dematobia hominis</t>
+  </si>
+  <si>
+    <t>Myiases</t>
+  </si>
+  <si>
+    <t>Amérique latine</t>
+  </si>
+  <si>
+    <t>Cordylobia anthropophaga (meme qu'avant déterminer repartition</t>
+  </si>
+  <si>
+    <t>Larve de diptères qui se nourissent de tissu vivant ou mort ou de fluides corporels
+La larve se situe le plus souvent au niveaux sous-cutané</t>
+  </si>
+  <si>
+    <t>Myiase furonculoïde : Furoncle dans lequel se dépose la larve
+Nodule érythémateux
+Port central ou on voit la larve dépasser
+Ecoulement purulent
+Prurit, sensation de corp étranger
+Pas dangereux mais impressionnant</t>
+  </si>
+  <si>
+    <t>Excision manuelle de la larve avec des gants sans la couper
+Injection de lidocaïne ou application d’ivermectine peut faciliter le retrait</t>
+  </si>
+  <si>
+    <t>Afrique</t>
   </si>
 </sst>
 </file>
@@ -869,11 +1986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6483C4B5-9939-4327-94BE-077401734F28}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,9 +2214,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>54</v>
@@ -1111,21 +2228,21 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1134,390 +2251,1443 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>125</v>
+      <c r="E19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="300" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="330" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="195" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="315" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
